--- a/temp_export.xlsx
+++ b/temp_export.xlsx
@@ -142,7 +142,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5715000" cy="2857500"/>
+    <ext cx="5715000" cy="3429000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -150,6 +150,81 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -452,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +541,11 @@
           <t>Table : α-Cut</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Table : α-α'-Cut</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -475,87 +555,164 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>fn₁ (Y̲,ρ̲)</t>
+          <t>(Y̲)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>fn₂ (Y̅,ρ̲)</t>
+          <t>(Y̅)</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>fn₃ (Y̲,ρ̅ )</t>
+          <t>(ρ̲)</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>fn₄ (Y̅,ρ̅ )</t>
+          <t>(ρ̅ )</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>α-α</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>(Y̲)</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>(Y̅)</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>(ρ̲)</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>(ρ̅ )</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>811.5149</v>
+        <v>69953986000</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>865.1352000000001</v>
+        <v>78914842000</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>806.4213</v>
+        <v>2684.1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>859.7051</v>
+        <v>2715.9</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>0.41-0.4</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>69953986000</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>78940480000</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>2684.1</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>812.7914</v>
+        <v>70199446000</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>863.5729</v>
+        <v>78658462000</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>807.9891</v>
+        <v>2685.1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>858.4705</v>
+        <v>2714.9</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.51-0.55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>70199446000</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>78555910000</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2685.1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2714.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>814.0651</v>
+        <v>70420360000</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>862.0088</v>
+        <v>78427720000</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>809.5549999999999</v>
+        <v>2686</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>857.2331</v>
+        <v>2714</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0.6-0.66</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>70420360000</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>78273892000</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>2686</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2713.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Bar Chart : α-Cut</t>
+          <t>Line Chart : α-Cut</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/temp_export.xlsx
+++ b/temp_export.xlsx
@@ -601,104 +601,104 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.41</v>
+        <v>0.1145</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>69953986000</v>
+        <v>69228651700</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>78914842000</v>
+        <v>79672444900</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2684.1</v>
+        <v>2681.145</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2715.9</v>
+        <v>2718.855</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>0.41-0.4</t>
+          <t>0.1145-0.0</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>69953986000</v>
+        <v>69228651700</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>78940480000</v>
+        <v>79966000000</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2684.1</v>
+        <v>2681.145</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2716</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.51</v>
+        <v>0.4545</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>70199446000</v>
+        <v>70063215700</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>78658462000</v>
+        <v>78800752900</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2685.1</v>
+        <v>2684.545</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2714.9</v>
+        <v>2715.455</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0.51-0.55</t>
+          <t>0.4545-0.0</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>70199446000</v>
+        <v>70063215700</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>78555910000</v>
+        <v>79966000000</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2685.1</v>
+        <v>2684.545</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2714.5</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.6</v>
+        <v>0.5487</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>70420360000</v>
+        <v>70294439020</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>78427720000</v>
+        <v>78559242940</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2686</v>
+        <v>2685.487</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2714</v>
+        <v>2714.513</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0.6-0.66</t>
+          <t>0.5487-0.0</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>70420360000</v>
+        <v>70294439020</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>78273892000</v>
+        <v>79966000000</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>2686</v>
+        <v>2685.487</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2713.4</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="7">

--- a/temp_export.xlsx
+++ b/temp_export.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Images" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Line Chart" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -49,9 +53,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -527,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,181 +545,189 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table : α-Cut</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Table : α-α'-Cut</t>
+          <t>Trapezoidal Fuzzy Function for Neoprene Rubber</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>α</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>(Y̲)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>(Y̅)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>(ρ̲)</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>(ρ̅ )</t>
+          <t>Table : α-Cut</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>α-α</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>(Y̲)</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>(Y̅)</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>(ρ̲)</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>(ρ̅ )</t>
+          <t>Table : α-α'-Cut</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0.1145</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>69228651700</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>79672444900</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2681.145</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2718.855</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>0.1145-0.0</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>69228651700</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>79966000000</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>2681.145</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>2720</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>α</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>(Y̲)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>(Y̅)</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>(ρ̲)</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>(ρ̅ )</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>α-α</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>(Y̲)</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>(Y̅)</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>(ρ̲)</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>(ρ̅ )</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>70063215700</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>78800752900</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2684.545</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>2715.455</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0.4545-0.0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>70063215700</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>79966000000</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2684.545</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>2720</v>
+      <c r="A4" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>480000</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1298</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>0.2-0.22</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>478000</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1252</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1297.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0.5487</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>70294439020</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>78559242940</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2685.487</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2714.513</v>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0.5487-0.0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>70294439020</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>79966000000</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2685.487</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2720</v>
+      <c r="A5" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>470000</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1253</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1297</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>0.3-0.33</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>130000</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>467000</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1253</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1296.7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>140000</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>460000</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1254</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1296</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>0.4-0.44</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>140000</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>456000</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1254</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1295.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Line Chart : α-Cut</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
